--- a/output/1Y_P85_KFSDIV.xlsx
+++ b/output/1Y_P85_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.4583</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.3341</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E3" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="F3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="H3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0119</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1923.8485</v>
+        <v>1919.9979</v>
       </c>
       <c r="F4" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="H4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3958</v>
+        <v>10.4167</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9569.7197</v>
+        <v>-9570.582</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0435</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2935.5232</v>
+        <v>2929.6502</v>
       </c>
       <c r="F5" s="1">
-        <v>1008.0571</v>
+        <v>1006.0288</v>
       </c>
       <c r="H5" s="1">
-        <v>29259.8276</v>
+        <v>29142.9882</v>
       </c>
       <c r="I5" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="J5" s="1">
-        <v>29690.1079</v>
+        <v>29572.4062</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2196</v>
+        <v>10.2401</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10047.8089</v>
+        <v>-10047.7131</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0232</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.4908</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E6" s="1">
-        <v>3943.5803</v>
+        <v>3935.679</v>
       </c>
       <c r="F6" s="1">
-        <v>957.7734</v>
+        <v>955.8509</v>
       </c>
       <c r="H6" s="1">
-        <v>41371.3121</v>
+        <v>41205.7723</v>
       </c>
       <c r="I6" s="1">
-        <v>382.4713</v>
+        <v>381.7049</v>
       </c>
       <c r="J6" s="1">
-        <v>41753.7835</v>
+        <v>41587.4772</v>
       </c>
       <c r="K6" s="1">
-        <v>40047.8089</v>
+        <v>40047.7131</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1552</v>
+        <v>10.1756</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10047.8089</v>
+        <v>-10047.7131</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.052</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.6308</v>
       </c>
       <c r="C7" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E7" s="1">
-        <v>4901.3537</v>
+        <v>4891.5299</v>
       </c>
       <c r="F7" s="1">
-        <v>945.1602</v>
+        <v>943.2612</v>
       </c>
       <c r="H7" s="1">
-        <v>52105.3105</v>
+        <v>51896.6864</v>
       </c>
       <c r="I7" s="1">
-        <v>334.6624</v>
+        <v>333.9918</v>
       </c>
       <c r="J7" s="1">
-        <v>52439.973</v>
+        <v>52230.6782</v>
       </c>
       <c r="K7" s="1">
-        <v>50095.6178</v>
+        <v>50095.4262</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2208</v>
+        <v>10.2413</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10047.8089</v>
+        <v>-10047.7131</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0133</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.3176</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E8" s="1">
-        <v>5846.5139</v>
+        <v>5834.7911</v>
       </c>
       <c r="F8" s="1">
-        <v>973.8514</v>
+        <v>971.8922</v>
       </c>
       <c r="H8" s="1">
-        <v>60321.9913</v>
+        <v>60080.8444</v>
       </c>
       <c r="I8" s="1">
-        <v>286.8535</v>
+        <v>286.2787</v>
       </c>
       <c r="J8" s="1">
-        <v>60608.8448</v>
+        <v>60367.123</v>
       </c>
       <c r="K8" s="1">
-        <v>60143.4268</v>
+        <v>60143.1393</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2871</v>
+        <v>10.3077</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10047.8089</v>
+        <v>-10047.7131</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0293</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.2392</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E9" s="1">
-        <v>6820.3652</v>
+        <v>6806.6833</v>
       </c>
       <c r="F9" s="1">
-        <v>981.308</v>
+        <v>979.3379</v>
       </c>
       <c r="H9" s="1">
-        <v>69835.0836</v>
+        <v>69555.455</v>
       </c>
       <c r="I9" s="1">
-        <v>239.0446</v>
+        <v>238.5656</v>
       </c>
       <c r="J9" s="1">
-        <v>70074.12820000001</v>
+        <v>69794.0206</v>
       </c>
       <c r="K9" s="1">
-        <v>70191.2357</v>
+        <v>70190.8524</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2914</v>
+        <v>10.312</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10047.8089</v>
+        <v>-10047.7131</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D10" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7801.6732</v>
+        <v>7786.0212</v>
       </c>
       <c r="F10" s="1">
-        <v>1006.8954</v>
+        <v>1004.8718</v>
       </c>
       <c r="H10" s="1">
-        <v>77852.117</v>
+        <v>77540.9856</v>
       </c>
       <c r="I10" s="1">
-        <v>191.2357</v>
+        <v>190.8524</v>
       </c>
       <c r="J10" s="1">
-        <v>78043.3527</v>
+        <v>77731.838</v>
       </c>
       <c r="K10" s="1">
-        <v>80239.04459999999</v>
+        <v>80238.5656</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2849</v>
+        <v>10.3055</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1534.5822</v>
+        <v>1531.5038</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8513.226699999999</v>
+        <v>-8516.2094</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.1873</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E11" s="1">
-        <v>8808.568600000001</v>
+        <v>8790.893</v>
       </c>
       <c r="F11" s="1">
-        <v>1036.5196</v>
+        <v>1034.3382</v>
       </c>
       <c r="H11" s="1">
-        <v>89735.5309</v>
+        <v>89376.1305</v>
       </c>
       <c r="I11" s="1">
-        <v>1678.0089</v>
+        <v>1674.6431</v>
       </c>
       <c r="J11" s="1">
-        <v>91413.5398</v>
+        <v>91050.7736</v>
       </c>
       <c r="K11" s="1">
-        <v>90286.8535</v>
+        <v>90286.2787</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2499</v>
+        <v>10.2704</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10559.3363</v>
+        <v>-10558.2144</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0383</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.4058</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E12" s="1">
-        <v>9845.0882</v>
+        <v>9825.231299999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1014.7549</v>
+        <v>1012.6132</v>
       </c>
       <c r="H12" s="1">
-        <v>102446.019</v>
+        <v>102035.0268</v>
       </c>
       <c r="I12" s="1">
-        <v>1118.6726</v>
+        <v>1116.4287</v>
       </c>
       <c r="J12" s="1">
-        <v>103564.6916</v>
+        <v>103151.4555</v>
       </c>
       <c r="K12" s="1">
-        <v>100846.1898</v>
+        <v>100844.493</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2433</v>
+        <v>10.2638</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10559.3363</v>
+        <v>-10558.2144</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0212</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.2688</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E13" s="1">
-        <v>10859.8431</v>
+        <v>10837.8445</v>
       </c>
       <c r="F13" s="1">
-        <v>1028.2931</v>
+        <v>1026.1254</v>
       </c>
       <c r="H13" s="1">
-        <v>111517.5568</v>
+        <v>111069.4818</v>
       </c>
       <c r="I13" s="1">
-        <v>559.3363000000001</v>
+        <v>558.2144</v>
       </c>
       <c r="J13" s="1">
-        <v>112076.8931</v>
+        <v>111627.6962</v>
       </c>
       <c r="K13" s="1">
-        <v>111405.5261</v>
+        <v>111402.7074</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2585</v>
+        <v>10.279</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>886.0579</v>
+        <v>884.2708</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9673.278399999999</v>
+        <v>-9673.943499999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0131</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.4938</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E14" s="1">
-        <v>11888.1362</v>
+        <v>11863.9699</v>
       </c>
       <c r="F14" s="1">
-        <v>-11888.1362</v>
+        <v>-11863.9699</v>
       </c>
       <c r="H14" s="1">
-        <v>124751.7238</v>
+        <v>124248.9837</v>
       </c>
       <c r="I14" s="1">
-        <v>886.0579</v>
+        <v>884.2708</v>
       </c>
       <c r="J14" s="1">
-        <v>125637.7817</v>
+        <v>125133.2545</v>
       </c>
       <c r="K14" s="1">
-        <v>121964.8624</v>
+        <v>121960.9217</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2594</v>
+        <v>10.2799</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124751.7238</v>
+        <v>124248.9837</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0292</v>
+        <v>0.0288</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.4583</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.3341</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E3" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="F3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0119</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1923.8485</v>
+        <v>1919.9979</v>
       </c>
       <c r="F4" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3958</v>
+        <v>10.4167</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9569.7197</v>
+        <v>-9570.582</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0435</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2935.5232</v>
+        <v>2929.6502</v>
       </c>
       <c r="F5" s="1">
-        <v>1046.4289</v>
+        <v>1044.2471</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29259.8276</v>
+        <v>29142.9882</v>
       </c>
       <c r="I5" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="J5" s="1">
-        <v>29690.1079</v>
+        <v>29572.4062</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2196</v>
+        <v>10.2401</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10430.2803</v>
+        <v>-10429.418</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0232</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.4908</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E6" s="1">
-        <v>3981.9521</v>
+        <v>3973.8973</v>
       </c>
       <c r="F6" s="1">
-        <v>784.1286</v>
+        <v>801.7431</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="K6" s="1">
-        <v>40430.2803</v>
+        <v>40429.418</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1534</v>
+        <v>10.1737</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8226.1366</v>
+        <v>-8427.763300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0525</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.6308</v>
       </c>
       <c r="C7" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E7" s="1">
-        <v>4766.0808</v>
+        <v>4775.6404</v>
       </c>
       <c r="F7" s="1">
-        <v>877.8971</v>
+        <v>879.6685</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50667.2513</v>
+        <v>50667.157</v>
       </c>
       <c r="I7" s="1">
-        <v>1773.8634</v>
+        <v>1572.2367</v>
       </c>
       <c r="J7" s="1">
-        <v>52441.1147</v>
+        <v>52239.3936</v>
       </c>
       <c r="K7" s="1">
-        <v>48656.4168</v>
+        <v>48857.1813</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2089</v>
+        <v>10.2305</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9332.7487</v>
+        <v>-9370.3169</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0129</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.3176</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E8" s="1">
-        <v>5643.9779</v>
+        <v>5655.3089</v>
       </c>
       <c r="F8" s="1">
-        <v>1140.5457</v>
+        <v>1142.7876</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58232.3061</v>
+        <v>58232.716</v>
       </c>
       <c r="I8" s="1">
-        <v>2441.1147</v>
+        <v>2201.9198</v>
       </c>
       <c r="J8" s="1">
-        <v>60673.4209</v>
+        <v>60434.6357</v>
       </c>
       <c r="K8" s="1">
-        <v>57989.1655</v>
+        <v>58227.4982</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2745</v>
+        <v>10.2961</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11767.6939</v>
+        <v>-11814.4812</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0283</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.2392</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E9" s="1">
-        <v>6784.5235</v>
+        <v>6798.0965</v>
       </c>
       <c r="F9" s="1">
-        <v>1028.5869</v>
+        <v>1012.4505</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69468.0934</v>
+        <v>69467.709</v>
       </c>
       <c r="I9" s="1">
-        <v>673.4209</v>
+        <v>387.4386</v>
       </c>
       <c r="J9" s="1">
-        <v>70141.51420000001</v>
+        <v>69855.1476</v>
       </c>
       <c r="K9" s="1">
-        <v>69756.8594</v>
+        <v>70041.9794</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2818</v>
+        <v>10.3032</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10531.9066</v>
+        <v>-10387.4386</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0075</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D10" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7813.1104</v>
+        <v>7810.5471</v>
       </c>
       <c r="F10" s="1">
-        <v>1016.2856</v>
+        <v>1000.1</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77966.24739999999</v>
+        <v>77785.2381</v>
       </c>
       <c r="I10" s="1">
-        <v>141.5142</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78107.7616</v>
+        <v>77785.2381</v>
       </c>
       <c r="K10" s="1">
-        <v>80288.766</v>
+        <v>80429.41800000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2762</v>
+        <v>10.2975</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1526.5178</v>
+        <v>1529.5717</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8614.9964</v>
+        <v>-8470.4283</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0254</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.1873</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E11" s="1">
-        <v>8829.396000000001</v>
+        <v>8810.6471</v>
       </c>
       <c r="F11" s="1">
-        <v>986.7476</v>
+        <v>1025.1928</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>89947.7061</v>
+        <v>89576.9676</v>
       </c>
       <c r="I11" s="1">
-        <v>1526.5178</v>
+        <v>1529.5717</v>
       </c>
       <c r="J11" s="1">
-        <v>91474.2239</v>
+        <v>91106.5393</v>
       </c>
       <c r="K11" s="1">
-        <v>90430.2803</v>
+        <v>90429.41800000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.242</v>
+        <v>10.2637</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10052.2939</v>
+        <v>-10464.8602</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0382</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.4058</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E12" s="1">
-        <v>9816.143599999999</v>
+        <v>9835.8398</v>
       </c>
       <c r="F12" s="1">
-        <v>754.8841</v>
+        <v>756.3605</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>102144.8274</v>
+        <v>102145.1967</v>
       </c>
       <c r="I12" s="1">
-        <v>1474.2239</v>
+        <v>1064.7115</v>
       </c>
       <c r="J12" s="1">
-        <v>103619.0513</v>
+        <v>103209.9081</v>
       </c>
       <c r="K12" s="1">
-        <v>100482.5742</v>
+        <v>100894.2782</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2365</v>
+        <v>10.2578</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7855.1726</v>
+        <v>-7886.3436</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0211</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.2688</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E13" s="1">
-        <v>10571.0277</v>
+        <v>10592.2003</v>
       </c>
       <c r="F13" s="1">
-        <v>1114.8558</v>
+        <v>1117.0588</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108551.7692</v>
+        <v>108552.0462</v>
       </c>
       <c r="I13" s="1">
-        <v>3619.0513</v>
+        <v>3178.3679</v>
       </c>
       <c r="J13" s="1">
-        <v>112170.8205</v>
+        <v>111730.4141</v>
       </c>
       <c r="K13" s="1">
-        <v>108337.7468</v>
+        <v>108780.6218</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2486</v>
+        <v>10.2699</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>883.4529</v>
+        <v>885.2256</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10564.7779</v>
+        <v>-10608.6393</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0127</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.4938</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E14" s="1">
-        <v>11685.8835</v>
+        <v>11709.2591</v>
       </c>
       <c r="F14" s="1">
-        <v>-11685.8835</v>
+        <v>-11709.2591</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122629.3238</v>
+        <v>122628.7287</v>
       </c>
       <c r="I14" s="1">
-        <v>3054.2734</v>
+        <v>2569.7286</v>
       </c>
       <c r="J14" s="1">
-        <v>125683.5972</v>
+        <v>125198.4573</v>
       </c>
       <c r="K14" s="1">
-        <v>119785.9776</v>
+        <v>120274.4867</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2505</v>
+        <v>10.2717</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122629.3238</v>
+        <v>122628.7287</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0288</v>
+        <v>0.0285</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.4583</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.3341</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E3" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="F3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0119</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1923.8485</v>
+        <v>1919.9979</v>
       </c>
       <c r="F4" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3958</v>
+        <v>10.4167</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9569.7197</v>
+        <v>-9570.582</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0435</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2935.5232</v>
+        <v>2929.6502</v>
       </c>
       <c r="F5" s="1">
-        <v>1046.4289</v>
+        <v>1044.2471</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29259.8276</v>
+        <v>29142.9882</v>
       </c>
       <c r="I5" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="J5" s="1">
-        <v>29690.1079</v>
+        <v>29572.4062</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2196</v>
+        <v>10.2401</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10430.2803</v>
+        <v>-10429.418</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0232</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.4908</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E6" s="1">
-        <v>3981.9521</v>
+        <v>3973.8973</v>
       </c>
       <c r="F6" s="1">
-        <v>832.0282999999999</v>
+        <v>849.7388999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="K6" s="1">
-        <v>40430.2803</v>
+        <v>40429.418</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1534</v>
+        <v>10.1737</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8728.6428</v>
+        <v>-8932.285400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0525</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.6308</v>
       </c>
       <c r="C7" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E7" s="1">
-        <v>4813.9805</v>
+        <v>4823.6362</v>
       </c>
       <c r="F7" s="1">
-        <v>901.0192</v>
+        <v>902.8371</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51176.4635</v>
+        <v>51176.3682</v>
       </c>
       <c r="I7" s="1">
-        <v>1271.3572</v>
+        <v>1067.7146</v>
       </c>
       <c r="J7" s="1">
-        <v>52447.8207</v>
+        <v>52244.0828</v>
       </c>
       <c r="K7" s="1">
-        <v>49158.9231</v>
+        <v>49361.7034</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2117</v>
+        <v>10.2333</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9578.5553</v>
+        <v>-9617.1114</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.013</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.3176</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E8" s="1">
-        <v>5714.9997</v>
+        <v>5726.4733</v>
       </c>
       <c r="F8" s="1">
-        <v>1133.287</v>
+        <v>1107.5905</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58965.0809</v>
+        <v>58965.4959</v>
       </c>
       <c r="I8" s="1">
-        <v>1692.8019</v>
+        <v>1450.6032</v>
       </c>
       <c r="J8" s="1">
-        <v>60657.8828</v>
+        <v>60416.0991</v>
       </c>
       <c r="K8" s="1">
-        <v>58737.4783</v>
+        <v>58978.8148</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2778</v>
+        <v>10.2993</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11692.8019</v>
+        <v>-11450.6032</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0287</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.2392</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E9" s="1">
-        <v>6848.2867</v>
+        <v>6834.0639</v>
       </c>
       <c r="F9" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70120.9771</v>
+        <v>69835.2484</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70120.9771</v>
+        <v>69835.2484</v>
       </c>
       <c r="K9" s="1">
-        <v>70430.2803</v>
+        <v>70429.41800000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2844</v>
+        <v>10.3056</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0076</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D10" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7824.9255</v>
+        <v>7808.7512</v>
       </c>
       <c r="F10" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78084.149</v>
+        <v>77767.3535</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78084.149</v>
+        <v>77767.3535</v>
       </c>
       <c r="K10" s="1">
-        <v>80430.2803</v>
+        <v>80429.41800000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2787</v>
+        <v>10.2999</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1540.8645</v>
+        <v>1537.6644</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8459.1355</v>
+        <v>-8462.3356</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0254</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.1873</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E11" s="1">
-        <v>8827.0299</v>
+        <v>8808.851199999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1132.8678</v>
+        <v>1130.2903</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89923.6018</v>
+        <v>89558.70970000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1540.8645</v>
+        <v>1537.6644</v>
       </c>
       <c r="J11" s="1">
-        <v>91464.4663</v>
+        <v>91096.374</v>
       </c>
       <c r="K11" s="1">
-        <v>90430.2803</v>
+        <v>90429.41800000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2447</v>
+        <v>10.2657</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11540.8645</v>
+        <v>-11537.6644</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0384</v>
+        <v>0.0379</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.4058</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E12" s="1">
-        <v>9959.8977</v>
+        <v>9939.1415</v>
       </c>
       <c r="F12" s="1">
-        <v>879.4097</v>
+        <v>921.8758</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103640.704</v>
+        <v>103217.985</v>
       </c>
       <c r="I12" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>103640.704</v>
+        <v>103217.985</v>
       </c>
       <c r="K12" s="1">
-        <v>101971.1448</v>
+        <v>101967.0824</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2382</v>
+        <v>10.2591</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9150.9614</v>
+        <v>-9612.1227</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.2688</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E13" s="1">
-        <v>10839.3074</v>
+        <v>10861.0174</v>
       </c>
       <c r="F13" s="1">
-        <v>1056.505</v>
+        <v>1009.5708</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111306.6803</v>
+        <v>111306.9643</v>
       </c>
       <c r="I13" s="1">
-        <v>849.0386</v>
+        <v>387.8773</v>
       </c>
       <c r="J13" s="1">
-        <v>112155.7189</v>
+        <v>111694.8417</v>
       </c>
       <c r="K13" s="1">
-        <v>111122.1062</v>
+        <v>111579.205</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2518</v>
+        <v>10.2734</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>896.3908</v>
+        <v>894.5227</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9952.647800000001</v>
+        <v>-9493.354600000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0131</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.4938</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E14" s="1">
-        <v>11895.8124</v>
+        <v>11870.5881</v>
       </c>
       <c r="F14" s="1">
-        <v>-11895.8124</v>
+        <v>-11870.5881</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124832.2767</v>
+        <v>124318.2953</v>
       </c>
       <c r="I14" s="1">
-        <v>896.3908</v>
+        <v>894.5227</v>
       </c>
       <c r="J14" s="1">
-        <v>125728.6675</v>
+        <v>125212.8181</v>
       </c>
       <c r="K14" s="1">
-        <v>121971.1448</v>
+        <v>121967.0824</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2533</v>
+        <v>10.2747</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124832.2767</v>
+        <v>124318.2953</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0292</v>
+        <v>0.0289</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.4583</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.3341</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E3" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="F3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0119</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1923.8485</v>
+        <v>1919.9979</v>
       </c>
       <c r="F4" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3958</v>
+        <v>10.4167</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9569.7197</v>
+        <v>-9570.582</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0435</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2935.5232</v>
+        <v>2929.6502</v>
       </c>
       <c r="F5" s="1">
-        <v>1046.4289</v>
+        <v>1044.2471</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29259.8276</v>
+        <v>29142.9882</v>
       </c>
       <c r="I5" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="J5" s="1">
-        <v>29690.1079</v>
+        <v>29572.4062</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2196</v>
+        <v>10.2401</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10430.2803</v>
+        <v>-10429.418</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0232</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.4908</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E6" s="1">
-        <v>3981.9521</v>
+        <v>3973.8973</v>
       </c>
       <c r="F6" s="1">
-        <v>880.4082</v>
+        <v>898.2157999999999</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="K6" s="1">
-        <v>40430.2803</v>
+        <v>40429.418</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1534</v>
+        <v>10.1737</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9236.1867</v>
+        <v>-9441.865299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0525</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.6308</v>
       </c>
       <c r="C7" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E7" s="1">
-        <v>4862.3604</v>
+        <v>4872.1131</v>
       </c>
       <c r="F7" s="1">
-        <v>924.6125</v>
+        <v>926.4778</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51690.7806</v>
+        <v>51690.6843</v>
       </c>
       <c r="I7" s="1">
-        <v>763.8133</v>
+        <v>558.1347</v>
       </c>
       <c r="J7" s="1">
-        <v>52454.5939</v>
+        <v>52248.819</v>
       </c>
       <c r="K7" s="1">
-        <v>49666.4669</v>
+        <v>49871.2833</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2145</v>
+        <v>10.2361</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9829.3701</v>
+        <v>-9868.934300000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0131</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.3176</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E8" s="1">
-        <v>5786.9728</v>
+        <v>5798.5909</v>
       </c>
       <c r="F8" s="1">
-        <v>1059.7855</v>
+        <v>1033.9418</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59707.6707</v>
+        <v>59708.0909</v>
       </c>
       <c r="I8" s="1">
-        <v>934.4433</v>
+        <v>689.2005</v>
       </c>
       <c r="J8" s="1">
-        <v>60642.114</v>
+        <v>60397.2914</v>
       </c>
       <c r="K8" s="1">
-        <v>59495.837</v>
+        <v>59740.2175</v>
       </c>
       <c r="L8" s="1">
-        <v>10.281</v>
+        <v>10.3025</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10934.4433</v>
+        <v>-10689.2005</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.029</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.2392</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E9" s="1">
-        <v>6846.7584</v>
+        <v>6832.5327</v>
       </c>
       <c r="F9" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70105.3281</v>
+        <v>69819.6023</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70105.3281</v>
+        <v>69819.6023</v>
       </c>
       <c r="K9" s="1">
-        <v>70430.2803</v>
+        <v>70429.41800000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2867</v>
+        <v>10.308</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0076</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D10" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7823.3972</v>
+        <v>7807.2201</v>
       </c>
       <c r="F10" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78068.8979</v>
+        <v>77752.105</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78068.8979</v>
+        <v>77752.105</v>
       </c>
       <c r="K10" s="1">
-        <v>80430.2803</v>
+        <v>80429.41800000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2807</v>
+        <v>10.3019</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1540.5206</v>
+        <v>1537.3199</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8459.4794</v>
+        <v>-8462.6801</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0254</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.1873</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E11" s="1">
-        <v>8825.5016</v>
+        <v>8807.320100000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1132.8341</v>
+        <v>1130.2566</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89908.0322</v>
+        <v>89543.14290000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1540.5206</v>
+        <v>1537.3199</v>
       </c>
       <c r="J11" s="1">
-        <v>91448.5528</v>
+        <v>91080.46279999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90430.2803</v>
+        <v>90429.41800000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2465</v>
+        <v>10.2675</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11540.5206</v>
+        <v>-11537.3199</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0384</v>
+        <v>0.0379</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.4058</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E12" s="1">
-        <v>9958.3357</v>
+        <v>9937.5767</v>
       </c>
       <c r="F12" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>103624.4492</v>
+        <v>103201.7338</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>103624.4492</v>
+        <v>103201.7338</v>
       </c>
       <c r="K12" s="1">
-        <v>101970.8009</v>
+        <v>101966.7379</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2397</v>
+        <v>10.2607</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.2688</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E13" s="1">
-        <v>10919.3382</v>
+        <v>10896.6529</v>
       </c>
       <c r="F13" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112128.4998</v>
+        <v>111672.1678</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>112128.4998</v>
+        <v>111672.1678</v>
       </c>
       <c r="K13" s="1">
-        <v>111970.8009</v>
+        <v>111966.7379</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2544</v>
+        <v>10.2753</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>896.2501999999999</v>
+        <v>894.3819</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9103.7498</v>
+        <v>-9105.6181</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.4938</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E14" s="1">
-        <v>11893.1618</v>
+        <v>11868.5269</v>
       </c>
       <c r="F14" s="1">
-        <v>-11893.1618</v>
+        <v>-11868.5269</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124804.4612</v>
+        <v>124296.7081</v>
       </c>
       <c r="I14" s="1">
-        <v>896.2501999999999</v>
+        <v>894.3819</v>
       </c>
       <c r="J14" s="1">
-        <v>125700.7114</v>
+        <v>125191.09</v>
       </c>
       <c r="K14" s="1">
-        <v>121970.8009</v>
+        <v>121966.7379</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2555</v>
+        <v>10.2765</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124804.4612</v>
+        <v>124296.7081</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0292</v>
+        <v>0.0289</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.4583</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.3341</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E3" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="F3" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9881.2426</v>
+        <v>9841.687900000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0119</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1923.8485</v>
+        <v>1919.9979</v>
       </c>
       <c r="F4" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19016.4728</v>
+        <v>18940.3954</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3958</v>
+        <v>10.4167</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9569.7197</v>
+        <v>-9570.582</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0435</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D5" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2935.5232</v>
+        <v>2929.6502</v>
       </c>
       <c r="F5" s="1">
-        <v>1046.4289</v>
+        <v>1044.2471</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29259.8276</v>
+        <v>29142.9882</v>
       </c>
       <c r="I5" s="1">
-        <v>430.2803</v>
+        <v>429.418</v>
       </c>
       <c r="J5" s="1">
-        <v>29690.1079</v>
+        <v>29572.4062</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2196</v>
+        <v>10.2401</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10430.2803</v>
+        <v>-10429.418</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0232</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.4908</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E6" s="1">
-        <v>3981.9521</v>
+        <v>3973.8973</v>
       </c>
       <c r="F6" s="1">
-        <v>929.2719</v>
+        <v>947.1775</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41773.8634</v>
+        <v>41605.9099</v>
       </c>
       <c r="K6" s="1">
-        <v>40430.2803</v>
+        <v>40429.418</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1534</v>
+        <v>10.1737</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9748.8058</v>
+        <v>-9956.540800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0525</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.6308</v>
       </c>
       <c r="C7" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D7" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E7" s="1">
-        <v>4911.224</v>
+        <v>4921.0748</v>
       </c>
       <c r="F7" s="1">
-        <v>948.6839</v>
+        <v>942.8619</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52210.2406</v>
+        <v>52210.1434</v>
       </c>
       <c r="I7" s="1">
-        <v>251.1942</v>
+        <v>43.4592</v>
       </c>
       <c r="J7" s="1">
-        <v>52461.4348</v>
+        <v>52253.6026</v>
       </c>
       <c r="K7" s="1">
-        <v>50179.0861</v>
+        <v>50385.9588</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2172</v>
+        <v>10.2388</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10085.2687</v>
+        <v>-10043.4592</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0133</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.3176</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E8" s="1">
-        <v>5859.9079</v>
+        <v>5863.9367</v>
       </c>
       <c r="F8" s="1">
-        <v>985.2994</v>
+        <v>967.277</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60460.1861</v>
+        <v>60380.9564</v>
       </c>
       <c r="I8" s="1">
-        <v>165.9255</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60626.1116</v>
+        <v>60380.9564</v>
       </c>
       <c r="K8" s="1">
-        <v>60264.3547</v>
+        <v>60429.418</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2842</v>
+        <v>10.3053</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10165.9255</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0294</v>
+        <v>-0.0301</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.2392</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E9" s="1">
-        <v>6845.2074</v>
+        <v>6831.2137</v>
       </c>
       <c r="F9" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70089.4474</v>
+        <v>69806.12390000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70089.4474</v>
+        <v>69806.12390000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70430.2803</v>
+        <v>70429.41800000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.289</v>
+        <v>10.3099</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0076</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D10" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7821.8462</v>
+        <v>7805.9011</v>
       </c>
       <c r="F10" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>78053.42080000001</v>
+        <v>77738.96920000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>78053.42080000001</v>
+        <v>77738.96920000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80430.2803</v>
+        <v>80429.41800000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2828</v>
+        <v>10.3037</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1540.1717</v>
+        <v>1537.0231</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8459.828299999999</v>
+        <v>-8462.9769</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0254</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.1873</v>
       </c>
       <c r="C11" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D11" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E11" s="1">
-        <v>8823.9506</v>
+        <v>8806.001099999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1132.7998</v>
+        <v>1130.2275</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89892.2319</v>
+        <v>89529.7328</v>
       </c>
       <c r="I11" s="1">
-        <v>1540.1717</v>
+        <v>1537.0231</v>
       </c>
       <c r="J11" s="1">
-        <v>91432.40360000001</v>
+        <v>91066.7559</v>
       </c>
       <c r="K11" s="1">
-        <v>90430.2803</v>
+        <v>90429.41800000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2483</v>
+        <v>10.2691</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11540.1717</v>
+        <v>-11537.0231</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0384</v>
+        <v>0.0379</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.4058</v>
       </c>
       <c r="C12" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D12" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E12" s="1">
-        <v>9956.750400000001</v>
+        <v>9936.2286</v>
       </c>
       <c r="F12" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>103607.9535</v>
+        <v>103187.7341</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>103607.9535</v>
+        <v>103187.7341</v>
       </c>
       <c r="K12" s="1">
-        <v>101970.4519</v>
+        <v>101966.4411</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2413</v>
+        <v>10.2621</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.2688</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E13" s="1">
-        <v>10917.7529</v>
+        <v>10895.3048</v>
       </c>
       <c r="F13" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112112.2214</v>
+        <v>111658.3524</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>112112.2214</v>
+        <v>111658.3524</v>
       </c>
       <c r="K13" s="1">
-        <v>111970.4519</v>
+        <v>111966.4411</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2558</v>
+        <v>10.2766</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="1">
-        <v>896.1075</v>
+        <v>894.2606</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9103.8925</v>
+        <v>-9105.7394</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.4938</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E14" s="1">
-        <v>11891.5766</v>
+        <v>11867.1788</v>
       </c>
       <c r="F14" s="1">
-        <v>-11891.5766</v>
+        <v>-11867.1788</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124787.8261</v>
+        <v>124282.59</v>
       </c>
       <c r="I14" s="1">
-        <v>896.1075</v>
+        <v>894.2606</v>
       </c>
       <c r="J14" s="1">
-        <v>125683.9337</v>
+        <v>125176.8506</v>
       </c>
       <c r="K14" s="1">
-        <v>121970.4519</v>
+        <v>121966.4411</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2569</v>
+        <v>10.2776</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124787.8261</v>
+        <v>124282.59</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0292</v>
+        <v>0.0289</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2594</v>
+        <v>10.2799</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2505</v>
+        <v>10.2717</v>
       </c>
       <c r="E3" s="1">
-        <v>10.2533</v>
+        <v>10.2747</v>
       </c>
       <c r="F3" s="1">
-        <v>10.2555</v>
+        <v>10.2765</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2569</v>
+        <v>10.2776</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0075</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0464</v>
+        <v>0.034</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0474</v>
+        <v>0.0352</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0477</v>
+        <v>0.0352</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0474</v>
+        <v>0.0349</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0471</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0988</v>
+        <v>0.0997</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0985</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0.099</v>
+        <v>0.0999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09909999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0992</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.1425</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2638</v>
+        <v>0.1372</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2745</v>
+        <v>0.149</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2765</v>
+        <v>0.1488</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2728</v>
+        <v>0.1457</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2701</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0886</v>
+        <v>0.0805</v>
       </c>
       <c r="D7" s="3">
-        <v>0.09039999999999999</v>
+        <v>0.0823</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0901</v>
+        <v>0.0818</v>
       </c>
       <c r="F7" s="3">
-        <v>0.08939999999999999</v>
+        <v>0.0813</v>
       </c>
       <c r="G7" s="3">
-        <v>0.089</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2850.9204</v>
+        <v>2845.1926</v>
       </c>
       <c r="D8" s="1">
-        <v>2840.251</v>
+        <v>2844.2153</v>
       </c>
       <c r="E8" s="1">
-        <v>2867.5356</v>
+        <v>2861.6051</v>
       </c>
       <c r="F8" s="1">
-        <v>2867.0511</v>
+        <v>2861.1198</v>
       </c>
       <c r="G8" s="1">
-        <v>2866.5595</v>
+        <v>2860.7017</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P85_KFSDIV.xlsx
+++ b/output/1Y_P85_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4583</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3341</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.884600000000001</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967499999999999</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4908</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.6308</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3176</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2392</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.978999999999999</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1873</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4058</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2688</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4938</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4583</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3341</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.884600000000001</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967499999999999</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4908</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.6308</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3176</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2392</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.978999999999999</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1873</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4058</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2688</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4938</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4583</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3341</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.884600000000001</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967499999999999</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4908</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.6308</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3176</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2392</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.978999999999999</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1873</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4058</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2688</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4938</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4583</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3341</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.884600000000001</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967499999999999</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4908</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.6308</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3176</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2392</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.978999999999999</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1873</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4058</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2688</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4938</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4583</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3341</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.884600000000001</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.967499999999999</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4908</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.6308</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3176</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2392</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.978999999999999</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.1873</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.4058</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2688</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4938</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>3616.7876</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0267</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0475</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0275</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0273</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
